--- a/P5_chardonnet_plan_test.xlsx
+++ b/P5_chardonnet_plan_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -31,13 +31,46 @@
     <t>Une page d’accueil montrant (de manière dynamique) tous les articles disponibles à la vente.</t>
   </si>
   <si>
-    <t>Ouvrir sur la page d'accueil du site web dans un navigateur</t>
-  </si>
-  <si>
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
     <t>OK / Description erreur</t>
+  </si>
+  <si>
+    <t>Ouvrir la page d'accueil du site web dans un navigateur</t>
+  </si>
+  <si>
+    <t>Cliquez sur un produit sur la page d'acceuil</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Affichage détaillé du produit sélectionné</t>
+  </si>
+  <si>
+    <t>Cliquez sur le bouton commander</t>
+  </si>
+  <si>
+    <t>Stock le produit dans le panier</t>
+  </si>
+  <si>
+    <t>Affiche les produits stocké</t>
+  </si>
+  <si>
+    <t>Ouvrir la page panier</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour passer la commande</t>
+  </si>
+  <si>
+    <t>Vérifie les éléments rentrer dans le formulaire</t>
+  </si>
+  <si>
+    <t>Affiche le prix et le nombre d'article total du panier</t>
+  </si>
+  <si>
+    <t>Renvoi le prix et le nombre d'article total du panier</t>
   </si>
 </sst>
 </file>
@@ -587,14 +620,14 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.85546875" customWidth="1"/>
     <col min="5" max="5" width="52.7109375" customWidth="1"/>
   </cols>
@@ -622,13 +655,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" ht="18">
@@ -636,45 +669,75 @@
         <v>2</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" ht="18">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="18">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="18">
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="36">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="18">
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="36">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" ht="18">
       <c r="A8" s="10"/>

--- a/P5_chardonnet_plan_test.xlsx
+++ b/P5_chardonnet_plan_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Renvoi le prix et le nombre d'article total du panier</t>
+  </si>
+  <si>
+    <t>Affiche la numéro de commande</t>
+  </si>
+  <si>
+    <t>Renvoi le numéro de commande</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -740,14 +746,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>

--- a/P5_chardonnet_plan_test.xlsx
+++ b/P5_chardonnet_plan_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Renvoi le numéro de commande</t>
+  </si>
+  <si>
+    <t>Une page montrant un produit détaillé</t>
+  </si>
+  <si>
+    <t>Sauvegarde le produit dans le panier pour que le client le retrouve</t>
+  </si>
+  <si>
+    <t>Liste le produit sauvegarder par le client</t>
+  </si>
+  <si>
+    <t>Vérifie que les champs sont rempli correctement</t>
+  </si>
+  <si>
+    <t>Récapitulatif des produits dans le panier</t>
+  </si>
+  <si>
+    <t>Demande à l'API le numéro commande</t>
   </si>
 </sst>
 </file>
@@ -626,7 +644,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -674,7 +692,9 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
@@ -685,11 +705,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="18">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="36">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
@@ -704,7 +726,9 @@
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
@@ -719,7 +743,9 @@
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
@@ -734,7 +760,9 @@
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
@@ -749,7 +777,9 @@
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
@@ -759,9 +789,7 @@
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
+      <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>

--- a/P5_chardonnet_plan_test.xlsx
+++ b/P5_chardonnet_plan_test.xlsx
@@ -644,7 +644,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/P5_chardonnet_plan_test.xlsx
+++ b/P5_chardonnet_plan_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -25,21 +25,12 @@
     <t>Résultat attendu</t>
   </si>
   <si>
-    <t>Résultat observé</t>
-  </si>
-  <si>
     <t>Une page d’accueil montrant (de manière dynamique) tous les articles disponibles à la vente.</t>
   </si>
   <si>
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t>OK / Description erreur</t>
-  </si>
-  <si>
-    <t>Ouvrir la page d'accueil du site web dans un navigateur</t>
-  </si>
-  <si>
     <t>Cliquez sur un produit sur la page d'acceuil</t>
   </si>
   <si>
@@ -95,13 +86,91 @@
   </si>
   <si>
     <t>Demande à l'API le numéro commande</t>
+  </si>
+  <si>
+    <t>Ouvrir la page d'accueil du site web dans un navigateur, mosaique des produits disponibles et notification des produit non-disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiche produit </t>
+  </si>
+  <si>
+    <t>Ajout du produit dans le panier</t>
+  </si>
+  <si>
+    <t>Affichage détaillé du produit selectionné</t>
+  </si>
+  <si>
+    <t>Stocker le produit dans le panier dans la quantité et la couleur souhaité</t>
+  </si>
+  <si>
+    <t>Affichage des produits stockés, ainsi que leurs quantités et leurs couleurs</t>
+  </si>
+  <si>
+    <t>Retiré l'article du panier correspondant au bouton</t>
+  </si>
+  <si>
+    <t>Vérifier les élèments renseigner dans le formulaire</t>
+  </si>
+  <si>
+    <t>Message de confirmation ainsi que le numéro de la commande</t>
+  </si>
+  <si>
+    <t>Envoi du message de confirmation au client</t>
+  </si>
+  <si>
+    <t>Confirmation de commande</t>
+  </si>
+  <si>
+    <t>Passer la commande</t>
+  </si>
+  <si>
+    <t>Remplir les champs du formulaire client</t>
+  </si>
+  <si>
+    <t>Réduire la quantité d'un produit</t>
+  </si>
+  <si>
+    <t>Augmenter la quantité d'un produit</t>
+  </si>
+  <si>
+    <t>Suppression d'un article du panier</t>
+  </si>
+  <si>
+    <t>Affichage du panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouvrir la page panier </t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour pouvoir passer commande</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton commander, vérifie si le formulaire est conforme avant l'envoi de la requête</t>
+  </si>
+  <si>
+    <t>Met à jour la quantité de l'article ainsi que son prix</t>
+  </si>
+  <si>
+    <t>Cliquez sur un produit de la page d'accueil, vérifie la disponibilité de l'article</t>
+  </si>
+  <si>
+    <t>Appuyer sur la flèche pour augmenter le nombre d'un article</t>
+  </si>
+  <si>
+    <t>Appuyer sur la flèche pour réduire le nombre d'un article</t>
+  </si>
+  <si>
+    <t>Appuyer sur supprimer</t>
+  </si>
+  <si>
+    <t>Envoie les données du formulaire et des produits dans le panier à l'API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,6 +191,11 @@
       <sz val="14"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -137,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -152,8 +226,129 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -166,7 +361,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -181,7 +376,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -193,10 +388,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -205,7 +400,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -217,13 +412,88 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -231,141 +501,27 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -373,48 +529,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,6 +590,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,252 +828,315 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
     <col min="5" max="5" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="54">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="36">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="54">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="54">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="36">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="36">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="36">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="36">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="54">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="36.75" thickBot="1">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="A20" s="1"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="36">
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="36">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="6">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="C25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="6">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="36">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="36">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" ht="18">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
+      <c r="E26" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>